--- a/KlađenjeAnaliza.xlsx
+++ b/KlađenjeAnaliza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo_03bcn02\OneDrive\Dokumenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo_03bcn02\OneDrive\Dokumenti\Projektiranje informacijskih sustava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87331240-B673-493F-8D72-73FD16765D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C28CA-0536-42C8-BDD8-8267958B9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E23BFFE-7382-4B38-BF95-C9E3F49E1726}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E23BFFE-7382-4B38-BF95-C9E3F49E1726}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza izvedivosti" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Analiza izvedivosti</t>
   </si>
@@ -93,13 +93,115 @@
   </si>
   <si>
     <t>Integracija s vanjskim podacima</t>
+  </si>
+  <si>
+    <t>Funkcija</t>
+  </si>
+  <si>
+    <t>Količina (sati)</t>
+  </si>
+  <si>
+    <t>Cijena (po satu)</t>
+  </si>
+  <si>
+    <t>Ukupno</t>
+  </si>
+  <si>
+    <t>Analitičar sustava</t>
+  </si>
+  <si>
+    <t>Programer</t>
+  </si>
+  <si>
+    <t>Dizajner baze podataka</t>
+  </si>
+  <si>
+    <t>Pisac dokumentacije</t>
+  </si>
+  <si>
+    <t>Administrativni asistent</t>
+  </si>
+  <si>
+    <t>Vrsta</t>
+  </si>
+  <si>
+    <t>Količina (dani)</t>
+  </si>
+  <si>
+    <t>Cijena (po danu)</t>
+  </si>
+  <si>
+    <t>Obuka za programere</t>
+  </si>
+  <si>
+    <t>Obuka za korisnike</t>
+  </si>
+  <si>
+    <t>Cijena</t>
+  </si>
+  <si>
+    <t>Potrošni materijal</t>
+  </si>
+  <si>
+    <t>Tehnička literatura</t>
+  </si>
+  <si>
+    <t>Količina</t>
+  </si>
+  <si>
+    <t>Cijena (po komadu)</t>
+  </si>
+  <si>
+    <t>Licence za MS Office</t>
+  </si>
+  <si>
+    <t>Licence za Windows</t>
+  </si>
+  <si>
+    <t>Serveri</t>
+  </si>
+  <si>
+    <t>Održavanje postojeće opreme</t>
+  </si>
+  <si>
+    <t>Kategorija</t>
+  </si>
+  <si>
+    <t>Ljudski rad</t>
+  </si>
+  <si>
+    <t>$48,750</t>
+  </si>
+  <si>
+    <t>Edukacija</t>
+  </si>
+  <si>
+    <t>$18,500</t>
+  </si>
+  <si>
+    <t>Materijali</t>
+  </si>
+  <si>
+    <t>$4,000</t>
+  </si>
+  <si>
+    <t>Oprema</t>
+  </si>
+  <si>
+    <t>$70,500</t>
+  </si>
+  <si>
+    <t>$141,750</t>
+  </si>
+  <si>
+    <t>Materijal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +226,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -492,6 +609,39 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -501,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +763,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867CCFAE-21F7-4E11-BD08-E4F512D35AE1}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1531,12 +1700,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ABB857-AED3-4D6A-8B2D-0D371DA6A040}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="38">
+        <v>300</v>
+      </c>
+      <c r="C3" s="38">
+        <v>50</v>
+      </c>
+      <c r="D3" s="38">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="38">
+        <v>400</v>
+      </c>
+      <c r="C4" s="38">
+        <v>45</v>
+      </c>
+      <c r="D4" s="38">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="38">
+        <v>200</v>
+      </c>
+      <c r="C5" s="38">
+        <v>45</v>
+      </c>
+      <c r="D5" s="38">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="38">
+        <v>100</v>
+      </c>
+      <c r="C6" s="38">
+        <v>30</v>
+      </c>
+      <c r="D6" s="38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="38">
+        <v>150</v>
+      </c>
+      <c r="C7" s="38">
+        <v>25</v>
+      </c>
+      <c r="D7" s="38">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="38">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="38">
+        <v>3</v>
+      </c>
+      <c r="C13" s="38">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="38">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="38">
+        <v>2500</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="38">
+        <v>5</v>
+      </c>
+      <c r="C24" s="38">
+        <v>300</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="38">
+        <v>10</v>
+      </c>
+      <c r="C25" s="38">
+        <v>200</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="38">
+        <v>3</v>
+      </c>
+      <c r="C26" s="38">
+        <v>20000</v>
+      </c>
+      <c r="D26" s="38">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1</v>
+      </c>
+      <c r="C27" s="38">
+        <v>7000</v>
+      </c>
+      <c r="D27" s="38">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>